--- a/xlsx/众包_intext.xlsx
+++ b/xlsx/众包_intext.xlsx
@@ -29,13 +29,13 @@
     <t>en-Crowdsourcing</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_众包</t>
+    <t>政策_政策_维基百科_众包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
+    <t>机器翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%AE%A2</t>
